--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.211106</v>
+        <v>0.2417133333333333</v>
       </c>
       <c r="H2">
-        <v>0.633318</v>
+        <v>0.72514</v>
       </c>
       <c r="I2">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="J2">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.12467</v>
+        <v>1.70092</v>
       </c>
       <c r="N2">
-        <v>3.37401</v>
+        <v>5.10276</v>
       </c>
       <c r="O2">
-        <v>0.01913674935358929</v>
+        <v>0.06397439760344623</v>
       </c>
       <c r="P2">
-        <v>0.01913674935358929</v>
+        <v>0.06397439760344621</v>
       </c>
       <c r="Q2">
-        <v>0.23742458502</v>
+        <v>0.4111350429333334</v>
       </c>
       <c r="R2">
-        <v>2.13682126518</v>
+        <v>3.7002153864</v>
       </c>
       <c r="S2">
-        <v>0.001581374085316367</v>
+        <v>0.008212195134924384</v>
       </c>
       <c r="T2">
-        <v>0.001581374085316367</v>
+        <v>0.008212195134924383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.211106</v>
+        <v>0.2417133333333333</v>
       </c>
       <c r="H3">
-        <v>0.633318</v>
+        <v>0.72514</v>
       </c>
       <c r="I3">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="J3">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>35.239504</v>
       </c>
       <c r="O3">
-        <v>0.1998718306681982</v>
+        <v>0.4418052270230686</v>
       </c>
       <c r="P3">
-        <v>0.1998718306681982</v>
+        <v>0.4418052270230685</v>
       </c>
       <c r="Q3">
-        <v>2.479756910474667</v>
+        <v>2.839285992284444</v>
       </c>
       <c r="R3">
-        <v>22.317812194272</v>
+        <v>25.55357393056</v>
       </c>
       <c r="S3">
-        <v>0.01651650066389918</v>
+        <v>0.05671316763985536</v>
       </c>
       <c r="T3">
-        <v>0.01651650066389917</v>
+        <v>0.05671316763985536</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.211106</v>
+        <v>0.2417133333333333</v>
       </c>
       <c r="H4">
-        <v>0.633318</v>
+        <v>0.72514</v>
       </c>
       <c r="I4">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="J4">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5320596666666667</v>
+        <v>0.040268</v>
       </c>
       <c r="N4">
-        <v>1.596179</v>
+        <v>0.120804</v>
       </c>
       <c r="O4">
-        <v>0.009053226708416042</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="P4">
-        <v>0.00905322670841604</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="Q4">
-        <v>0.1123209879913333</v>
+        <v>0.009733312506666666</v>
       </c>
       <c r="R4">
-        <v>1.010888891922</v>
+        <v>0.08759981256</v>
       </c>
       <c r="S4">
-        <v>0.0007481175533345168</v>
+        <v>0.0001944175350358248</v>
       </c>
       <c r="T4">
-        <v>0.0007481175533345167</v>
+        <v>0.0001944175350358248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.211106</v>
+        <v>0.2417133333333333</v>
       </c>
       <c r="H5">
-        <v>0.633318</v>
+        <v>0.72514</v>
       </c>
       <c r="I5">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="J5">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.06735933333334</v>
+        <v>12.96401166666667</v>
       </c>
       <c r="N5">
-        <v>135.202078</v>
+        <v>38.892035</v>
       </c>
       <c r="O5">
-        <v>0.7668407262487158</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="P5">
-        <v>0.7668407262487157</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="Q5">
-        <v>9.513989959422668</v>
+        <v>3.133574473322222</v>
       </c>
       <c r="R5">
-        <v>85.625909634804</v>
+        <v>28.2021702599</v>
       </c>
       <c r="S5">
-        <v>0.06336823614337897</v>
+        <v>0.06259141731421992</v>
       </c>
       <c r="T5">
-        <v>0.06336823614337897</v>
+        <v>0.06259141731421992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.211106</v>
+        <v>0.2417133333333333</v>
       </c>
       <c r="H6">
-        <v>0.633318</v>
+        <v>0.72514</v>
       </c>
       <c r="I6">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="J6">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05030366666666666</v>
+        <v>0.13581</v>
       </c>
       <c r="N6">
-        <v>0.150911</v>
+        <v>0.40743</v>
       </c>
       <c r="O6">
-        <v>0.0008559387736549429</v>
+        <v>0.005108037378903201</v>
       </c>
       <c r="P6">
-        <v>0.0008559387736549428</v>
+        <v>0.0051080373789032</v>
       </c>
       <c r="Q6">
-        <v>0.01061940585533333</v>
+        <v>0.0328270878</v>
       </c>
       <c r="R6">
-        <v>0.095574652698</v>
+        <v>0.2954437902</v>
       </c>
       <c r="S6">
-        <v>7.073089427392872E-05</v>
+        <v>0.0006557029262246789</v>
       </c>
       <c r="T6">
-        <v>7.073089427392871E-05</v>
+        <v>0.0006557029262246787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.211106</v>
+        <v>0.7338789999999999</v>
       </c>
       <c r="H7">
-        <v>0.633318</v>
+        <v>2.201637</v>
       </c>
       <c r="I7">
-        <v>0.08263545997793841</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="J7">
-        <v>0.08263545997793841</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2492753333333333</v>
+        <v>1.70092</v>
       </c>
       <c r="N7">
-        <v>0.7478259999999999</v>
+        <v>5.10276</v>
       </c>
       <c r="O7">
-        <v>0.004241528247425842</v>
+        <v>0.06397439760344623</v>
       </c>
       <c r="P7">
-        <v>0.004241528247425842</v>
+        <v>0.06397439760344621</v>
       </c>
       <c r="Q7">
-        <v>0.05262351851866666</v>
+        <v>1.24826946868</v>
       </c>
       <c r="R7">
-        <v>0.473611666668</v>
+        <v>11.23442521812</v>
       </c>
       <c r="S7">
-        <v>0.0003505006377354534</v>
+        <v>0.0249334923742581</v>
       </c>
       <c r="T7">
-        <v>0.0003505006377354534</v>
+        <v>0.02493349237425809</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>2.201637</v>
       </c>
       <c r="I8">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="J8">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.12467</v>
+        <v>11.74650133333333</v>
       </c>
       <c r="N8">
-        <v>3.37401</v>
+        <v>35.239504</v>
       </c>
       <c r="O8">
-        <v>0.01913674935358929</v>
+        <v>0.4418052270230686</v>
       </c>
       <c r="P8">
-        <v>0.01913674935358929</v>
+        <v>0.4418052270230685</v>
       </c>
       <c r="Q8">
-        <v>0.82537169493</v>
+        <v>8.620510652005333</v>
       </c>
       <c r="R8">
-        <v>7.42834525437</v>
+        <v>77.58459586804798</v>
       </c>
       <c r="S8">
-        <v>0.005497414722262228</v>
+        <v>0.1721899333412972</v>
       </c>
       <c r="T8">
-        <v>0.005497414722262228</v>
+        <v>0.1721899333412972</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>2.201637</v>
       </c>
       <c r="I9">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="J9">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>11.74650133333333</v>
+        <v>0.040268</v>
       </c>
       <c r="N9">
-        <v>35.239504</v>
+        <v>0.120804</v>
       </c>
       <c r="O9">
-        <v>0.1998718306681982</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="P9">
-        <v>0.1998718306681982</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="Q9">
-        <v>8.620510652005333</v>
+        <v>0.029551839572</v>
       </c>
       <c r="R9">
-        <v>77.58459586804798</v>
+        <v>0.265966556148</v>
       </c>
       <c r="S9">
-        <v>0.05741718847745522</v>
+        <v>0.0005902816540029072</v>
       </c>
       <c r="T9">
-        <v>0.05741718847745521</v>
+        <v>0.0005902816540029072</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>2.201637</v>
       </c>
       <c r="I10">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="J10">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5320596666666667</v>
+        <v>12.96401166666667</v>
       </c>
       <c r="N10">
-        <v>1.596179</v>
+        <v>38.892035</v>
       </c>
       <c r="O10">
-        <v>0.009053226708416042</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="P10">
-        <v>0.00905322670841604</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="Q10">
-        <v>0.3904674161136666</v>
+        <v>9.514015917921666</v>
       </c>
       <c r="R10">
-        <v>3.514206745023</v>
+        <v>85.626143261295</v>
       </c>
       <c r="S10">
-        <v>0.002600720784457011</v>
+        <v>0.1900372069413178</v>
       </c>
       <c r="T10">
-        <v>0.002600720784457011</v>
+        <v>0.1900372069413178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>2.201637</v>
       </c>
       <c r="I11">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="J11">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.06735933333334</v>
+        <v>0.13581</v>
       </c>
       <c r="N11">
-        <v>135.202078</v>
+        <v>0.40743</v>
       </c>
       <c r="O11">
-        <v>0.7668407262487158</v>
+        <v>0.005108037378903201</v>
       </c>
       <c r="P11">
-        <v>0.7668407262487157</v>
+        <v>0.0051080373789032</v>
       </c>
       <c r="Q11">
-        <v>33.07398860018733</v>
+        <v>0.09966810699</v>
       </c>
       <c r="R11">
-        <v>297.665897401686</v>
+        <v>0.89701296291</v>
       </c>
       <c r="S11">
-        <v>0.2202903649004141</v>
+        <v>0.001990815323088677</v>
       </c>
       <c r="T11">
-        <v>0.2202903649004141</v>
+        <v>0.001990815323088676</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7338789999999999</v>
+        <v>0.225804</v>
       </c>
       <c r="H12">
-        <v>2.201637</v>
+        <v>0.677412</v>
       </c>
       <c r="I12">
-        <v>0.2872700384316384</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="J12">
-        <v>0.2872700384316384</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.05030366666666666</v>
+        <v>1.70092</v>
       </c>
       <c r="N12">
-        <v>0.150911</v>
+        <v>5.10276</v>
       </c>
       <c r="O12">
-        <v>0.0008559387736549429</v>
+        <v>0.06397439760344623</v>
       </c>
       <c r="P12">
-        <v>0.0008559387736549428</v>
+        <v>0.06397439760344621</v>
       </c>
       <c r="Q12">
-        <v>0.03691680458966666</v>
+        <v>0.38407453968</v>
       </c>
       <c r="R12">
-        <v>0.332251241307</v>
+        <v>3.45667085712</v>
       </c>
       <c r="S12">
-        <v>0.0002458855644029849</v>
+        <v>0.007671676546238517</v>
       </c>
       <c r="T12">
-        <v>0.0002458855644029848</v>
+        <v>0.007671676546238515</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7338789999999999</v>
+        <v>0.225804</v>
       </c>
       <c r="H13">
-        <v>2.201637</v>
+        <v>0.677412</v>
       </c>
       <c r="I13">
-        <v>0.2872700384316384</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="J13">
-        <v>0.2872700384316384</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2492753333333333</v>
+        <v>11.74650133333333</v>
       </c>
       <c r="N13">
-        <v>0.7478259999999999</v>
+        <v>35.239504</v>
       </c>
       <c r="O13">
-        <v>0.004241528247425842</v>
+        <v>0.4418052270230686</v>
       </c>
       <c r="P13">
-        <v>0.004241528247425842</v>
+        <v>0.4418052270230685</v>
       </c>
       <c r="Q13">
-        <v>0.1829379323513333</v>
+        <v>2.652406987072</v>
       </c>
       <c r="R13">
-        <v>1.646441391162</v>
+        <v>23.871662883648</v>
       </c>
       <c r="S13">
-        <v>0.001218463982646902</v>
+        <v>0.05298036285027678</v>
       </c>
       <c r="T13">
-        <v>0.001218463982646901</v>
+        <v>0.05298036285027678</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3608143333333333</v>
+        <v>0.225804</v>
       </c>
       <c r="H14">
-        <v>1.082443</v>
+        <v>0.677412</v>
       </c>
       <c r="I14">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="J14">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.12467</v>
+        <v>0.040268</v>
       </c>
       <c r="N14">
-        <v>3.37401</v>
+        <v>0.120804</v>
       </c>
       <c r="O14">
-        <v>0.01913674935358929</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="P14">
-        <v>0.01913674935358929</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="Q14">
-        <v>0.40579705627</v>
+        <v>0.009092675472</v>
       </c>
       <c r="R14">
-        <v>3.65217350643</v>
+        <v>0.081834079248</v>
       </c>
       <c r="S14">
-        <v>0.00270282434579801</v>
+        <v>0.0001816211645250409</v>
       </c>
       <c r="T14">
-        <v>0.00270282434579801</v>
+        <v>0.0001816211645250409</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3608143333333333</v>
+        <v>0.225804</v>
       </c>
       <c r="H15">
-        <v>1.082443</v>
+        <v>0.677412</v>
       </c>
       <c r="I15">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="J15">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.74650133333333</v>
+        <v>12.96401166666667</v>
       </c>
       <c r="N15">
-        <v>35.239504</v>
+        <v>38.892035</v>
       </c>
       <c r="O15">
-        <v>0.1998718306681982</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="P15">
-        <v>0.1998718306681982</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="Q15">
-        <v>4.238306047585778</v>
+        <v>2.92732569038</v>
       </c>
       <c r="R15">
-        <v>38.14475442827199</v>
+        <v>26.34593121342</v>
       </c>
       <c r="S15">
-        <v>0.02822937375557463</v>
+        <v>0.05847171192550452</v>
       </c>
       <c r="T15">
-        <v>0.02822937375557463</v>
+        <v>0.05847171192550452</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3608143333333333</v>
+        <v>0.225804</v>
       </c>
       <c r="H16">
-        <v>1.082443</v>
+        <v>0.677412</v>
       </c>
       <c r="I16">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="J16">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5320596666666667</v>
+        <v>0.13581</v>
       </c>
       <c r="N16">
-        <v>1.596179</v>
+        <v>0.40743</v>
       </c>
       <c r="O16">
-        <v>0.009053226708416042</v>
+        <v>0.005108037378903201</v>
       </c>
       <c r="P16">
-        <v>0.00905322670841604</v>
+        <v>0.0051080373789032</v>
       </c>
       <c r="Q16">
-        <v>0.1919747539218889</v>
+        <v>0.03066644124000001</v>
       </c>
       <c r="R16">
-        <v>1.727772785297</v>
+        <v>0.27599797116</v>
       </c>
       <c r="S16">
-        <v>0.001278654023388052</v>
+        <v>0.0006125452059736219</v>
       </c>
       <c r="T16">
-        <v>0.001278654023388052</v>
+        <v>0.0006125452059736218</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3608143333333333</v>
+        <v>0.1810366666666667</v>
       </c>
       <c r="H17">
-        <v>1.082443</v>
+        <v>0.54311</v>
       </c>
       <c r="I17">
-        <v>0.1412373802811535</v>
+        <v>0.0961432928232504</v>
       </c>
       <c r="J17">
-        <v>0.1412373802811535</v>
+        <v>0.09614329282325042</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.06735933333334</v>
+        <v>1.70092</v>
       </c>
       <c r="N17">
-        <v>135.202078</v>
+        <v>5.10276</v>
       </c>
       <c r="O17">
-        <v>0.7668407262487158</v>
+        <v>0.06397439760344623</v>
       </c>
       <c r="P17">
-        <v>0.7668407262487157</v>
+        <v>0.06397439760344621</v>
       </c>
       <c r="Q17">
-        <v>16.26094921295045</v>
+        <v>0.3079288870666667</v>
       </c>
       <c r="R17">
-        <v>146.348542916554</v>
+        <v>2.7713599836</v>
       </c>
       <c r="S17">
-        <v>0.1083065752682658</v>
+        <v>0.00615070924197918</v>
       </c>
       <c r="T17">
-        <v>0.1083065752682658</v>
+        <v>0.006150709241979179</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,61 +1535,61 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3608143333333333</v>
+        <v>0.1810366666666667</v>
       </c>
       <c r="H18">
-        <v>1.082443</v>
+        <v>0.54311</v>
       </c>
       <c r="I18">
-        <v>0.1412373802811535</v>
+        <v>0.0961432928232504</v>
       </c>
       <c r="J18">
-        <v>0.1412373802811535</v>
+        <v>0.09614329282325042</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05030366666666666</v>
+        <v>11.74650133333333</v>
       </c>
       <c r="N18">
-        <v>0.150911</v>
+        <v>35.239504</v>
       </c>
       <c r="O18">
-        <v>0.0008559387736549429</v>
+        <v>0.4418052270230686</v>
       </c>
       <c r="P18">
-        <v>0.0008559387736549428</v>
+        <v>0.4418052270230685</v>
       </c>
       <c r="Q18">
-        <v>0.01815028395255555</v>
+        <v>2.126547446382222</v>
       </c>
       <c r="R18">
-        <v>0.163352555573</v>
+        <v>19.13892701744</v>
       </c>
       <c r="S18">
-        <v>0.0001208905500720874</v>
+        <v>0.0424766093125215</v>
       </c>
       <c r="T18">
-        <v>0.0001208905500720873</v>
+        <v>0.04247660931252151</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3608143333333333</v>
+        <v>0.1810366666666667</v>
       </c>
       <c r="H19">
-        <v>1.082443</v>
+        <v>0.54311</v>
       </c>
       <c r="I19">
-        <v>0.1412373802811535</v>
+        <v>0.0961432928232504</v>
       </c>
       <c r="J19">
-        <v>0.1412373802811535</v>
+        <v>0.09614329282325042</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2492753333333333</v>
+        <v>0.040268</v>
       </c>
       <c r="N19">
-        <v>0.7478259999999999</v>
+        <v>0.120804</v>
       </c>
       <c r="O19">
-        <v>0.004241528247425842</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="P19">
-        <v>0.004241528247425842</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="Q19">
-        <v>0.0899421132131111</v>
+        <v>0.007289984493333333</v>
       </c>
       <c r="R19">
-        <v>0.8094790189179999</v>
+        <v>0.06560986044</v>
       </c>
       <c r="S19">
-        <v>0.0005990623380549383</v>
+        <v>0.0001456134090703958</v>
       </c>
       <c r="T19">
-        <v>0.0005990623380549381</v>
+        <v>0.0001456134090703958</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5430996666666666</v>
+        <v>0.1810366666666667</v>
       </c>
       <c r="H20">
-        <v>1.629299</v>
+        <v>0.54311</v>
       </c>
       <c r="I20">
-        <v>0.2125912611146297</v>
+        <v>0.0961432928232504</v>
       </c>
       <c r="J20">
-        <v>0.2125912611146297</v>
+        <v>0.09614329282325042</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.12467</v>
+        <v>12.96401166666667</v>
       </c>
       <c r="N20">
-        <v>3.37401</v>
+        <v>38.892035</v>
       </c>
       <c r="O20">
-        <v>0.01913674935358929</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="P20">
-        <v>0.01913674935358929</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="Q20">
-        <v>0.61080790211</v>
+        <v>2.346961458761111</v>
       </c>
       <c r="R20">
-        <v>5.497271118990001</v>
+        <v>21.12265312885</v>
       </c>
       <c r="S20">
-        <v>0.004068305678714123</v>
+        <v>0.04687925732620733</v>
       </c>
       <c r="T20">
-        <v>0.004068305678714123</v>
+        <v>0.04687925732620733</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5430996666666666</v>
+        <v>0.1810366666666667</v>
       </c>
       <c r="H21">
-        <v>1.629299</v>
+        <v>0.54311</v>
       </c>
       <c r="I21">
-        <v>0.2125912611146297</v>
+        <v>0.0961432928232504</v>
       </c>
       <c r="J21">
-        <v>0.2125912611146297</v>
+        <v>0.09614329282325042</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.74650133333333</v>
+        <v>0.13581</v>
       </c>
       <c r="N21">
-        <v>35.239504</v>
+        <v>0.40743</v>
       </c>
       <c r="O21">
-        <v>0.1998718306681982</v>
+        <v>0.005108037378903201</v>
       </c>
       <c r="P21">
-        <v>0.1998718306681982</v>
+        <v>0.0051080373789032</v>
       </c>
       <c r="Q21">
-        <v>6.379520958632888</v>
+        <v>0.0245865897</v>
       </c>
       <c r="R21">
-        <v>57.415688627696</v>
+        <v>0.2212793073</v>
       </c>
       <c r="S21">
-        <v>0.04249100454304197</v>
+        <v>0.0004911035334719989</v>
       </c>
       <c r="T21">
-        <v>0.04249100454304197</v>
+        <v>0.0004911035334719989</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,25 +1774,25 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.5430996666666666</v>
+        <v>0.1435336666666667</v>
       </c>
       <c r="H22">
-        <v>1.629299</v>
+        <v>0.430601</v>
       </c>
       <c r="I22">
-        <v>0.2125912611146297</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="J22">
-        <v>0.2125912611146297</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5320596666666667</v>
+        <v>1.70092</v>
       </c>
       <c r="N22">
-        <v>1.596179</v>
+        <v>5.10276</v>
       </c>
       <c r="O22">
-        <v>0.009053226708416042</v>
+        <v>0.06397439760344623</v>
       </c>
       <c r="P22">
-        <v>0.00905322670841604</v>
+        <v>0.06397439760344621</v>
       </c>
       <c r="Q22">
-        <v>0.2889614276134445</v>
+        <v>0.2441392843066667</v>
       </c>
       <c r="R22">
-        <v>2.600652848521</v>
+        <v>2.19725355876</v>
       </c>
       <c r="S22">
-        <v>0.001924636883098814</v>
+        <v>0.004876547200945438</v>
       </c>
       <c r="T22">
-        <v>0.001924636883098814</v>
+        <v>0.004876547200945438</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,25 +1836,25 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.5430996666666666</v>
+        <v>0.1435336666666667</v>
       </c>
       <c r="H23">
-        <v>1.629299</v>
+        <v>0.430601</v>
       </c>
       <c r="I23">
-        <v>0.2125912611146297</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="J23">
-        <v>0.2125912611146297</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>45.06735933333334</v>
+        <v>11.74650133333333</v>
       </c>
       <c r="N23">
-        <v>135.202078</v>
+        <v>35.239504</v>
       </c>
       <c r="O23">
-        <v>0.7668407262487158</v>
+        <v>0.4418052270230686</v>
       </c>
       <c r="P23">
-        <v>0.7668407262487157</v>
+        <v>0.4418052270230685</v>
       </c>
       <c r="Q23">
-        <v>24.47606783148022</v>
+        <v>1.686018406878222</v>
       </c>
       <c r="R23">
-        <v>220.284610483322</v>
+        <v>15.174165661904</v>
       </c>
       <c r="S23">
-        <v>0.163023637067273</v>
+        <v>0.03367728535026251</v>
       </c>
       <c r="T23">
-        <v>0.163023637067273</v>
+        <v>0.03367728535026251</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,25 +1898,25 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.5430996666666666</v>
+        <v>0.1435336666666667</v>
       </c>
       <c r="H24">
-        <v>1.629299</v>
+        <v>0.430601</v>
       </c>
       <c r="I24">
-        <v>0.2125912611146297</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="J24">
-        <v>0.2125912611146297</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,90 +1925,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.05030366666666666</v>
+        <v>0.040268</v>
       </c>
       <c r="N24">
-        <v>0.150911</v>
+        <v>0.120804</v>
       </c>
       <c r="O24">
-        <v>0.0008559387736549429</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="P24">
-        <v>0.0008559387736549428</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="Q24">
-        <v>0.02731990459877778</v>
+        <v>0.005779813689333333</v>
       </c>
       <c r="R24">
-        <v>0.245879141389</v>
+        <v>0.052018323204</v>
       </c>
       <c r="S24">
-        <v>0.0001819651033282139</v>
+        <v>0.0001154485823481827</v>
       </c>
       <c r="T24">
-        <v>0.0001819651033282139</v>
+        <v>0.0001154485823481827</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.5430996666666666</v>
+        <v>0.1435336666666667</v>
       </c>
       <c r="H25">
-        <v>1.629299</v>
+        <v>0.430601</v>
       </c>
       <c r="I25">
-        <v>0.2125912611146297</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="J25">
-        <v>0.2125912611146297</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2492753333333333</v>
+        <v>12.96401166666667</v>
       </c>
       <c r="N25">
-        <v>0.7478259999999999</v>
+        <v>38.892035</v>
       </c>
       <c r="O25">
-        <v>0.004241528247425842</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="P25">
-        <v>0.004241528247425842</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="Q25">
-        <v>0.1353813504415555</v>
+        <v>1.860772129226111</v>
       </c>
       <c r="R25">
-        <v>1.218432153974</v>
+        <v>16.746949163035</v>
       </c>
       <c r="S25">
-        <v>0.0009017118391735849</v>
+        <v>0.03716789431960782</v>
       </c>
       <c r="T25">
-        <v>0.0009017118391735849</v>
+        <v>0.03716789431960782</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,25 +2022,25 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3734286666666667</v>
+        <v>0.1435336666666667</v>
       </c>
       <c r="H26">
-        <v>1.120286</v>
+        <v>0.430601</v>
       </c>
       <c r="I26">
-        <v>0.1461751425300476</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="J26">
-        <v>0.1461751425300477</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,33 +2049,33 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.12467</v>
+        <v>0.13581</v>
       </c>
       <c r="N26">
-        <v>3.37401</v>
+        <v>0.40743</v>
       </c>
       <c r="O26">
-        <v>0.01913674935358929</v>
+        <v>0.005108037378903201</v>
       </c>
       <c r="P26">
-        <v>0.01913674935358929</v>
+        <v>0.0051080373789032</v>
       </c>
       <c r="Q26">
-        <v>0.4199840185400001</v>
+        <v>0.01949330727</v>
       </c>
       <c r="R26">
-        <v>3.779856166860001</v>
+        <v>0.17543976543</v>
       </c>
       <c r="S26">
-        <v>0.002797317064322712</v>
+        <v>0.000389368033393928</v>
       </c>
       <c r="T26">
-        <v>0.002797317064322713</v>
+        <v>0.0003893680333939279</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.3734286666666667</v>
+        <v>0.3570213333333334</v>
       </c>
       <c r="H27">
-        <v>1.120286</v>
+        <v>1.071064</v>
       </c>
       <c r="I27">
-        <v>0.1461751425300476</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="J27">
-        <v>0.1461751425300477</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,33 +2111,33 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>11.74650133333333</v>
+        <v>1.70092</v>
       </c>
       <c r="N27">
-        <v>35.239504</v>
+        <v>5.10276</v>
       </c>
       <c r="O27">
-        <v>0.1998718306681982</v>
+        <v>0.06397439760344623</v>
       </c>
       <c r="P27">
-        <v>0.1998718306681982</v>
+        <v>0.06397439760344621</v>
       </c>
       <c r="Q27">
-        <v>4.386480330904889</v>
+        <v>0.6072647262933334</v>
       </c>
       <c r="R27">
-        <v>39.478322978144</v>
+        <v>5.46538253664</v>
       </c>
       <c r="S27">
-        <v>0.02921629333566541</v>
+        <v>0.0121297771051006</v>
       </c>
       <c r="T27">
-        <v>0.02921629333566542</v>
+        <v>0.0121297771051006</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.3734286666666667</v>
+        <v>0.3570213333333334</v>
       </c>
       <c r="H28">
-        <v>1.120286</v>
+        <v>1.071064</v>
       </c>
       <c r="I28">
-        <v>0.1461751425300476</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="J28">
-        <v>0.1461751425300477</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,33 +2173,33 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.5320596666666667</v>
+        <v>11.74650133333333</v>
       </c>
       <c r="N28">
-        <v>1.596179</v>
+        <v>35.239504</v>
       </c>
       <c r="O28">
-        <v>0.009053226708416042</v>
+        <v>0.4418052270230686</v>
       </c>
       <c r="P28">
-        <v>0.00905322670841604</v>
+        <v>0.4418052270230685</v>
       </c>
       <c r="Q28">
-        <v>0.1986863319104445</v>
+        <v>4.193751568028445</v>
       </c>
       <c r="R28">
-        <v>1.788176987194</v>
+        <v>37.743764112256</v>
       </c>
       <c r="S28">
-        <v>0.001323356704459549</v>
+        <v>0.08376786852885519</v>
       </c>
       <c r="T28">
-        <v>0.001323356704459549</v>
+        <v>0.08376786852885516</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.3734286666666667</v>
+        <v>0.3570213333333334</v>
       </c>
       <c r="H29">
-        <v>1.120286</v>
+        <v>1.071064</v>
       </c>
       <c r="I29">
-        <v>0.1461751425300476</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="J29">
-        <v>0.1461751425300477</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>45.06735933333334</v>
+        <v>0.040268</v>
       </c>
       <c r="N29">
-        <v>135.202078</v>
+        <v>0.120804</v>
       </c>
       <c r="O29">
-        <v>0.7668407262487158</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="P29">
-        <v>0.7668407262487157</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="Q29">
-        <v>16.82944390603422</v>
+        <v>0.01437653505066667</v>
       </c>
       <c r="R29">
-        <v>151.464995154308</v>
+        <v>0.129388815456</v>
       </c>
       <c r="S29">
-        <v>0.1120930524572513</v>
+        <v>0.0002871633377632053</v>
       </c>
       <c r="T29">
-        <v>0.1120930524572513</v>
+        <v>0.0002871633377632052</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.3734286666666667</v>
+        <v>0.3570213333333334</v>
       </c>
       <c r="H30">
-        <v>1.120286</v>
+        <v>1.071064</v>
       </c>
       <c r="I30">
-        <v>0.1461751425300476</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="J30">
-        <v>0.1461751425300477</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.05030366666666666</v>
+        <v>12.96401166666667</v>
       </c>
       <c r="N30">
-        <v>0.150911</v>
+        <v>38.892035</v>
       </c>
       <c r="O30">
-        <v>0.0008559387736549429</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="P30">
-        <v>0.0008559387736549428</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="Q30">
-        <v>0.01878483117177778</v>
+        <v>4.628428730582223</v>
       </c>
       <c r="R30">
-        <v>0.169063480546</v>
+        <v>41.65585857524</v>
       </c>
       <c r="S30">
-        <v>0.0001251169722360054</v>
+        <v>0.09245030448497898</v>
       </c>
       <c r="T30">
-        <v>0.0001251169722360055</v>
+        <v>0.09245030448497897</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.3734286666666667</v>
+        <v>0.3570213333333334</v>
       </c>
       <c r="H31">
-        <v>1.120286</v>
+        <v>1.071064</v>
       </c>
       <c r="I31">
-        <v>0.1461751425300476</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="J31">
-        <v>0.1461751425300477</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.2492753333333333</v>
+        <v>0.13581</v>
       </c>
       <c r="N31">
-        <v>0.7478259999999999</v>
+        <v>0.40743</v>
       </c>
       <c r="O31">
-        <v>0.004241528247425842</v>
+        <v>0.005108037378903201</v>
       </c>
       <c r="P31">
-        <v>0.004241528247425842</v>
+        <v>0.0051080373789032</v>
       </c>
       <c r="Q31">
-        <v>0.09308655535955554</v>
+        <v>0.04848706728000001</v>
       </c>
       <c r="R31">
-        <v>0.837778998236</v>
+        <v>0.43638360552</v>
       </c>
       <c r="S31">
-        <v>0.0006200059961126957</v>
+        <v>0.0009685023567502959</v>
       </c>
       <c r="T31">
-        <v>0.0006200059961126957</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.3323383333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.997015</v>
-      </c>
-      <c r="I32">
-        <v>0.1300907176645923</v>
-      </c>
-      <c r="J32">
-        <v>0.1300907176645923</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.12467</v>
-      </c>
-      <c r="N32">
-        <v>3.37401</v>
-      </c>
-      <c r="O32">
-        <v>0.01913674935358929</v>
-      </c>
-      <c r="P32">
-        <v>0.01913674935358929</v>
-      </c>
-      <c r="Q32">
-        <v>0.37377095335</v>
-      </c>
-      <c r="R32">
-        <v>3.36393858015</v>
-      </c>
-      <c r="S32">
-        <v>0.002489513457175854</v>
-      </c>
-      <c r="T32">
-        <v>0.002489513457175854</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.3323383333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.997015</v>
-      </c>
-      <c r="I33">
-        <v>0.1300907176645923</v>
-      </c>
-      <c r="J33">
-        <v>0.1300907176645923</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>11.74650133333333</v>
-      </c>
-      <c r="N33">
-        <v>35.239504</v>
-      </c>
-      <c r="O33">
-        <v>0.1998718306681982</v>
-      </c>
-      <c r="P33">
-        <v>0.1998718306681982</v>
-      </c>
-      <c r="Q33">
-        <v>3.903812675617778</v>
-      </c>
-      <c r="R33">
-        <v>35.13431408056</v>
-      </c>
-      <c r="S33">
-        <v>0.02600146989256177</v>
-      </c>
-      <c r="T33">
-        <v>0.02600146989256177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.3323383333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.997015</v>
-      </c>
-      <c r="I34">
-        <v>0.1300907176645923</v>
-      </c>
-      <c r="J34">
-        <v>0.1300907176645923</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.5320596666666667</v>
-      </c>
-      <c r="N34">
-        <v>1.596179</v>
-      </c>
-      <c r="O34">
-        <v>0.009053226708416042</v>
-      </c>
-      <c r="P34">
-        <v>0.00905322670841604</v>
-      </c>
-      <c r="Q34">
-        <v>0.1768238228538889</v>
-      </c>
-      <c r="R34">
-        <v>1.591414405685</v>
-      </c>
-      <c r="S34">
-        <v>0.001177740759678098</v>
-      </c>
-      <c r="T34">
-        <v>0.001177740759678097</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.3323383333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.997015</v>
-      </c>
-      <c r="I35">
-        <v>0.1300907176645923</v>
-      </c>
-      <c r="J35">
-        <v>0.1300907176645923</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>45.06735933333334</v>
-      </c>
-      <c r="N35">
-        <v>135.202078</v>
-      </c>
-      <c r="O35">
-        <v>0.7668407262487158</v>
-      </c>
-      <c r="P35">
-        <v>0.7668407262487157</v>
-      </c>
-      <c r="Q35">
-        <v>14.97761108857445</v>
-      </c>
-      <c r="R35">
-        <v>134.79849979717</v>
-      </c>
-      <c r="S35">
-        <v>0.0997588604121326</v>
-      </c>
-      <c r="T35">
-        <v>0.09975886041213258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.3323383333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.997015</v>
-      </c>
-      <c r="I36">
-        <v>0.1300907176645923</v>
-      </c>
-      <c r="J36">
-        <v>0.1300907176645923</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.05030366666666666</v>
-      </c>
-      <c r="N36">
-        <v>0.150911</v>
-      </c>
-      <c r="O36">
-        <v>0.0008559387736549429</v>
-      </c>
-      <c r="P36">
-        <v>0.0008559387736549428</v>
-      </c>
-      <c r="Q36">
-        <v>0.01671783674055555</v>
-      </c>
-      <c r="R36">
-        <v>0.150460530665</v>
-      </c>
-      <c r="S36">
-        <v>0.0001113496893417225</v>
-      </c>
-      <c r="T36">
-        <v>0.0001113496893417225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.3323383333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.997015</v>
-      </c>
-      <c r="I37">
-        <v>0.1300907176645923</v>
-      </c>
-      <c r="J37">
-        <v>0.1300907176645923</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.2492753333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.7478259999999999</v>
-      </c>
-      <c r="O37">
-        <v>0.004241528247425842</v>
-      </c>
-      <c r="P37">
-        <v>0.004241528247425842</v>
-      </c>
-      <c r="Q37">
-        <v>0.0828437488211111</v>
-      </c>
-      <c r="R37">
-        <v>0.7455937393899998</v>
-      </c>
-      <c r="S37">
-        <v>0.0005517834537022683</v>
-      </c>
-      <c r="T37">
-        <v>0.0005517834537022682</v>
+        <v>0.0009685023567502955</v>
       </c>
     </row>
   </sheetData>
